--- a/配置表/F副本配置表.xlsx
+++ b/配置表/F副本配置表.xlsx
@@ -1,26 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
-  <workbookPr autoCompressPictures="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\neiwang3\zc\Document\配置表\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25605" windowHeight="13920"/>
+    <workbookView windowWidth="28695" windowHeight="13050"/>
   </bookViews>
   <sheets>
     <sheet name="副本配置表" sheetId="1" r:id="rId1"/>
-    <sheet name="章节配置" sheetId="6" r:id="rId2"/>
+    <sheet name="章节配置" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="140001" concurrentCalc="0"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
 </file>
 
@@ -30,7 +20,7 @@
     <author>作者</author>
   </authors>
   <commentList>
-    <comment ref="E3" authorId="0" shapeId="0">
+    <comment ref="E3" authorId="0">
       <text>
         <r>
           <rPr>
@@ -39,7 +29,7 @@
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t>作者:
+          <t xml:space="preserve">作者:
 下一链副本ID (没有的时候为0,用于验证千程塔的类型副本)</t>
         </r>
       </text>
@@ -49,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107">
   <si>
     <t>DungeonConfig</t>
   </si>
@@ -72,6 +62,24 @@
     <t>章节</t>
   </si>
   <si>
+    <t>背景音乐</t>
+  </si>
+  <si>
+    <t>音乐声音大小</t>
+  </si>
+  <si>
+    <t>环境噪音</t>
+  </si>
+  <si>
+    <t>噪音大小</t>
+  </si>
+  <si>
+    <t>主城还是野外</t>
+  </si>
+  <si>
+    <t>进入条件道具</t>
+  </si>
+  <si>
     <t>id</t>
   </si>
   <si>
@@ -84,342 +92,19 @@
     <t>Chapter</t>
   </si>
   <si>
-    <t>类型列</t>
-  </si>
-  <si>
-    <t>Integer</t>
-  </si>
-  <si>
-    <t>String</t>
-  </si>
-  <si>
-    <t>SERVER</t>
-  </si>
-  <si>
-    <t>主城</t>
-  </si>
-  <si>
-    <t>mainCityScene</t>
-  </si>
-  <si>
-    <t>新手村</t>
-  </si>
-  <si>
-    <t>斗魂塔3层</t>
-  </si>
-  <si>
-    <t>END</t>
-  </si>
-  <si>
-    <t>斗魂塔4层</t>
-  </si>
-  <si>
-    <t>ChapterConfig</t>
-  </si>
-  <si>
-    <t>章节ID</t>
-  </si>
-  <si>
-    <t>章节名称</t>
-  </si>
-  <si>
-    <t>章节背景图</t>
-  </si>
-  <si>
     <t>background</t>
   </si>
   <si>
-    <t>第一章 粉碎的命运</t>
-  </si>
-  <si>
-    <t>第二章 重生塔</t>
-  </si>
-  <si>
-    <t>斗魂塔1层</t>
-  </si>
-  <si>
-    <t>斗魂塔2层</t>
-  </si>
-  <si>
-    <t>斗魂塔5层</t>
-  </si>
-  <si>
-    <t>斗魂塔6层</t>
-  </si>
-  <si>
-    <t>斗魂塔7层</t>
-  </si>
-  <si>
-    <t>斗魂塔8层</t>
-  </si>
-  <si>
-    <t>斗魂塔9层</t>
-  </si>
-  <si>
-    <t>斗魂塔10层</t>
-  </si>
-  <si>
-    <t>斗魂塔11层</t>
-  </si>
-  <si>
-    <t>斗魂塔12层</t>
-  </si>
-  <si>
-    <t>斗魂塔13层</t>
-  </si>
-  <si>
-    <t>斗魂塔14层</t>
-  </si>
-  <si>
-    <t>斗魂塔15层</t>
-  </si>
-  <si>
-    <t>斗魂塔16层</t>
-  </si>
-  <si>
-    <t>斗魂塔17层</t>
-  </si>
-  <si>
-    <t>斗魂塔18层</t>
-  </si>
-  <si>
-    <t>斗魂塔19层</t>
-  </si>
-  <si>
-    <t>斗魂塔20层</t>
-  </si>
-  <si>
-    <t>斗魂塔21层</t>
-  </si>
-  <si>
-    <t>斗魂塔22层</t>
-  </si>
-  <si>
-    <t>斗魂塔23层</t>
-  </si>
-  <si>
-    <t>斗魂塔24层</t>
-  </si>
-  <si>
-    <t>斗魂塔25层</t>
-  </si>
-  <si>
-    <t>斗魂塔26层</t>
-  </si>
-  <si>
-    <t>斗魂塔27层</t>
-  </si>
-  <si>
-    <t>斗魂塔28层</t>
-  </si>
-  <si>
-    <t>斗魂塔29层</t>
-  </si>
-  <si>
-    <t>斗魂塔30层</t>
-  </si>
-  <si>
-    <t>斗魂塔31层</t>
-  </si>
-  <si>
-    <t>斗魂塔32层</t>
-  </si>
-  <si>
-    <t>斗魂塔33层</t>
-  </si>
-  <si>
-    <t>斗魂塔34层</t>
-  </si>
-  <si>
-    <t>mainScene</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>level_1-4</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>level_1-4</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>level_1-4</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>level_1-4</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>背景音乐</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>background</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>TownBackground</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Mines</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>主城还是野外</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>isCity</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>String</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Boolean</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>试炼之境一层</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>试炼之境三层</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>试炼之境四层</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>试炼之境十层</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>魔神巢穴</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>进入条件道具</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>condition</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Integer</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>母巢</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>瀛洲入侵</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>幽冥鬼界</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>苍狼穴</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Amb_SwampLoop</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>翠绿神庙一层</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>翠绿神庙二层</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>翠绿神庙三层</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>翠绿神庙四层</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>翠绿神庙五层</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>翠绿神庙六层</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>翠绿神庙七层</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>翠绿神庙八层</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>翠绿神庙九层</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>翠绿神庙十层</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>远古战场</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>炸弹人战场</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>坦克战场</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>坦克匹配</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>皇室冲突</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>岩浆城堡</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>tank</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>bgm</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>音乐声音大小</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>volume</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>环境噪音</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="9"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>n</t>
     </r>
     <r>
@@ -427,15 +112,54 @@
         <sz val="10"/>
         <color indexed="9"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>oise</t>
     </r>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="9"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>n</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="9"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>oiseVolume</t>
+    </r>
+  </si>
+  <si>
+    <t>isCity</t>
+  </si>
+  <si>
+    <t>condition</t>
+  </si>
+  <si>
+    <t>类型列</t>
+  </si>
+  <si>
+    <t>Integer</t>
+  </si>
+  <si>
+    <t>String</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="9"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>S</t>
     </r>
     <r>
@@ -443,42 +167,263 @@
         <sz val="10"/>
         <color indexed="9"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>tring</t>
     </r>
-    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Boolean</t>
+  </si>
+  <si>
+    <t>SERVER</t>
+  </si>
+  <si>
+    <t>主城</t>
+  </si>
+  <si>
+    <t>mainCityScene</t>
+  </si>
+  <si>
+    <t>新手村</t>
+  </si>
+  <si>
+    <t>mainScene</t>
+  </si>
+  <si>
+    <t>TownBackground</t>
+  </si>
+  <si>
+    <t>试炼之境一层</t>
+  </si>
+  <si>
+    <t>level_1-4</t>
+  </si>
+  <si>
+    <t>Mines</t>
+  </si>
+  <si>
+    <t>岩浆城堡</t>
+  </si>
+  <si>
+    <t>试炼之境三层</t>
+  </si>
+  <si>
+    <t>试炼之境四层</t>
+  </si>
+  <si>
+    <t>魔神巢穴</t>
+  </si>
+  <si>
+    <t>母巢</t>
+  </si>
+  <si>
+    <t>瀛洲入侵</t>
+  </si>
+  <si>
+    <t>幽冥鬼界</t>
+  </si>
+  <si>
+    <t>苍狼穴</t>
+  </si>
+  <si>
+    <t>试炼之境十层</t>
+  </si>
+  <si>
+    <t>翠绿神庙一层</t>
+  </si>
+  <si>
+    <t>Amb_SwampLoop</t>
+  </si>
+  <si>
+    <t>翠绿神庙二层</t>
+  </si>
+  <si>
+    <t>翠绿神庙三层</t>
+  </si>
+  <si>
+    <t>翠绿神庙四层</t>
+  </si>
+  <si>
+    <t>翠绿神庙五层</t>
+  </si>
+  <si>
+    <t>翠绿神庙六层</t>
+  </si>
+  <si>
+    <t>翠绿神庙七层</t>
+  </si>
+  <si>
+    <t>翠绿神庙八层</t>
+  </si>
+  <si>
+    <t>翠绿神庙九层</t>
+  </si>
+  <si>
+    <t>翠绿神庙十层</t>
+  </si>
+  <si>
+    <t>远古战场</t>
+  </si>
+  <si>
+    <t>炸弹人战场</t>
+  </si>
+  <si>
+    <t>坦克战场</t>
+  </si>
+  <si>
+    <t>tank</t>
+  </si>
+  <si>
+    <t>bgm</t>
   </si>
   <si>
     <t>wind</t>
   </si>
   <si>
-    <t>噪音大小</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>n</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="9"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>oiseVolume</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <t>坦克匹配</t>
+  </si>
+  <si>
+    <t>皇室冲突</t>
+  </si>
+  <si>
+    <t>moba</t>
+  </si>
+  <si>
+    <t>ChapterConfig</t>
+  </si>
+  <si>
+    <t>章节ID</t>
+  </si>
+  <si>
+    <t>章节名称</t>
+  </si>
+  <si>
+    <t>章节背景图</t>
+  </si>
+  <si>
+    <t>第一章 粉碎的命运</t>
+  </si>
+  <si>
+    <t>第二章 重生塔</t>
+  </si>
+  <si>
+    <t>斗魂塔1层</t>
+  </si>
+  <si>
+    <t>斗魂塔2层</t>
+  </si>
+  <si>
+    <t>斗魂塔3层</t>
+  </si>
+  <si>
+    <t>斗魂塔4层</t>
+  </si>
+  <si>
+    <t>斗魂塔5层</t>
+  </si>
+  <si>
+    <t>斗魂塔6层</t>
+  </si>
+  <si>
+    <t>斗魂塔7层</t>
+  </si>
+  <si>
+    <t>斗魂塔8层</t>
+  </si>
+  <si>
+    <t>斗魂塔9层</t>
+  </si>
+  <si>
+    <t>斗魂塔10层</t>
+  </si>
+  <si>
+    <t>斗魂塔11层</t>
+  </si>
+  <si>
+    <t>斗魂塔12层</t>
+  </si>
+  <si>
+    <t>斗魂塔13层</t>
+  </si>
+  <si>
+    <t>斗魂塔14层</t>
+  </si>
+  <si>
+    <t>斗魂塔15层</t>
+  </si>
+  <si>
+    <t>斗魂塔16层</t>
+  </si>
+  <si>
+    <t>斗魂塔17层</t>
+  </si>
+  <si>
+    <t>斗魂塔18层</t>
+  </si>
+  <si>
+    <t>斗魂塔19层</t>
+  </si>
+  <si>
+    <t>斗魂塔20层</t>
+  </si>
+  <si>
+    <t>斗魂塔21层</t>
+  </si>
+  <si>
+    <t>斗魂塔22层</t>
+  </si>
+  <si>
+    <t>斗魂塔23层</t>
+  </si>
+  <si>
+    <t>斗魂塔24层</t>
+  </si>
+  <si>
+    <t>斗魂塔25层</t>
+  </si>
+  <si>
+    <t>斗魂塔26层</t>
+  </si>
+  <si>
+    <t>斗魂塔27层</t>
+  </si>
+  <si>
+    <t>斗魂塔28层</t>
+  </si>
+  <si>
+    <t>斗魂塔29层</t>
+  </si>
+  <si>
+    <t>斗魂塔30层</t>
+  </si>
+  <si>
+    <t>斗魂塔31层</t>
+  </si>
+  <si>
+    <t>斗魂塔32层</t>
+  </si>
+  <si>
+    <t>斗魂塔33层</t>
+  </si>
+  <si>
+    <t>END</t>
+  </si>
+  <si>
+    <t>斗魂塔34层</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -492,39 +437,148 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="9"/>
-      <color indexed="81"/>
+      <sz val="10"/>
+      <color indexed="9"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color theme="11"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color indexed="9"/>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="宋体"/>
-      <family val="3"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="37">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -555,8 +609,194 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -592,105 +832,245 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="33">
+  <cellStyleXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -720,58 +1100,63 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="33">
+  <cellStyles count="47">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="7" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="9" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="11" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="13" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="15" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="17" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="19" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="21" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="23" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="25" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="27" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="29" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="31" builtinId="8" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="4" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="6" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="8" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="10" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="14" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="16" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="18" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="20" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="22" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="24" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="26" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="28" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="30" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="32" builtinId="9" hidden="1"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="百分比" xfId="10" builtinId="5"/>
+    <cellStyle name="注释" xfId="11" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="12" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="13" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="14" builtinId="11"/>
+    <cellStyle name="标题" xfId="15" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="16" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="17" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="18" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="19" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="20" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="21" builtinId="44"/>
+    <cellStyle name="输出" xfId="22" builtinId="21"/>
+    <cellStyle name="计算" xfId="23" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="24" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="25" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="26" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="27" builtinId="24"/>
+    <cellStyle name="汇总" xfId="28" builtinId="25"/>
+    <cellStyle name="好" xfId="29" builtinId="26"/>
+    <cellStyle name="适中" xfId="30" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="31" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="32" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="33" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="34" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="35" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="36" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="37" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="38" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="39" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="40" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="42" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="43" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="44" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="45" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="46" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -821,71 +1206,71 @@
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
         <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
         <a:font script="Khmr" typeface="MoolBoran"/>
         <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
         <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
         <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
         <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
         <a:font script="Khmr" typeface="DaunPenh"/>
         <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
         <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
         <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1103,14 +1488,15 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:L33"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="B1:L34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H33" sqref="H33"/>
+      <selection activeCell="E34" sqref="E34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="9" style="8"/>
     <col min="2" max="2" width="13.125" style="8" customWidth="1"/>
@@ -1123,7 +1509,7 @@
     <col min="13" max="16384" width="9" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="1" spans="2:5">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1131,12 +1517,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="2" spans="2:2">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="3" spans="2:12">
       <c r="B3" s="3" t="s">
         <v>2</v>
       </c>
@@ -1153,101 +1539,101 @@
         <v>6</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>65</v>
+        <v>7</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>104</v>
+        <v>8</v>
       </c>
       <c r="I3" s="10" t="s">
-        <v>106</v>
+        <v>9</v>
       </c>
       <c r="J3" s="10" t="s">
-        <v>110</v>
+        <v>10</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>69</v>
+        <v>11</v>
       </c>
       <c r="L3" s="3" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="4" spans="2:12" x14ac:dyDescent="0.15">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="2:12">
       <c r="B4" s="1"/>
       <c r="C4" s="1" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>66</v>
+        <v>17</v>
       </c>
       <c r="H4" s="9" t="s">
-        <v>105</v>
+        <v>18</v>
       </c>
       <c r="I4" s="9" t="s">
-        <v>107</v>
+        <v>19</v>
       </c>
       <c r="J4" s="9" t="s">
-        <v>111</v>
+        <v>20</v>
       </c>
       <c r="K4" s="4" t="s">
-        <v>70</v>
+        <v>21</v>
       </c>
       <c r="L4" s="4" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="5" spans="2:12" x14ac:dyDescent="0.15">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="2:12">
       <c r="B5" s="3" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="D5" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="I5" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="K5" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="L5" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="2:12">
+      <c r="B6" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C6" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="E5" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="H5" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="I5" s="10" t="s">
-        <v>108</v>
-      </c>
-      <c r="J5" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="K5" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="L5" s="3" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="6" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="B6" s="5" t="s">
+      <c r="D6" s="5" t="s">
         <v>14</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>8</v>
       </c>
       <c r="E6" s="5"/>
       <c r="F6" s="5"/>
@@ -1258,16 +1644,16 @@
       <c r="K6" s="5"/>
       <c r="L6" s="5"/>
     </row>
-    <row r="7" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="7" spans="2:12">
       <c r="B7" s="6"/>
       <c r="C7" s="7">
         <v>1</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="F7" s="7">
         <v>-1</v>
@@ -1289,22 +1675,22 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="8" spans="2:12">
       <c r="B8" s="6"/>
       <c r="C8" s="7">
         <v>2</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>60</v>
+        <v>32</v>
       </c>
       <c r="F8" s="7">
         <v>-1</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>67</v>
+        <v>33</v>
       </c>
       <c r="H8" s="7">
         <v>100</v>
@@ -1320,22 +1706,22 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="9" spans="2:12">
       <c r="B9" s="6"/>
       <c r="C9" s="7">
         <v>101</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>61</v>
+        <v>35</v>
       </c>
       <c r="F9" s="7">
         <v>1</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>68</v>
+        <v>36</v>
       </c>
       <c r="H9" s="7">
         <v>100</v>
@@ -1351,22 +1737,22 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="10" spans="2:12">
       <c r="B10" s="6"/>
       <c r="C10" s="7">
         <v>102</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>101</v>
+        <v>37</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>61</v>
+        <v>35</v>
       </c>
       <c r="F10" s="7">
         <v>1</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>68</v>
+        <v>36</v>
       </c>
       <c r="H10" s="7">
         <v>100</v>
@@ -1382,22 +1768,22 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="11" spans="2:12">
       <c r="B11" s="6"/>
       <c r="C11" s="7">
         <v>103</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>74</v>
+        <v>38</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>62</v>
+        <v>35</v>
       </c>
       <c r="F11" s="7">
         <v>1</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>68</v>
+        <v>36</v>
       </c>
       <c r="H11" s="7">
         <v>100</v>
@@ -1413,22 +1799,22 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="12" spans="2:12">
       <c r="B12" s="6"/>
       <c r="C12" s="7">
         <v>104</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>75</v>
+        <v>39</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>63</v>
+        <v>35</v>
       </c>
       <c r="F12" s="7">
         <v>1</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>68</v>
+        <v>36</v>
       </c>
       <c r="H12" s="7">
         <v>100</v>
@@ -1444,22 +1830,22 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="13" spans="2:12">
       <c r="B13" s="6"/>
       <c r="C13" s="7">
         <v>105</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>64</v>
+        <v>35</v>
       </c>
       <c r="F13" s="7">
         <v>1</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>68</v>
+        <v>36</v>
       </c>
       <c r="H13" s="7">
         <v>100</v>
@@ -1475,22 +1861,22 @@
         <v>102</v>
       </c>
     </row>
-    <row r="14" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="14" spans="2:12">
       <c r="B14" s="6"/>
       <c r="C14" s="7">
         <v>106</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>64</v>
+        <v>35</v>
       </c>
       <c r="F14" s="7">
         <v>1</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>68</v>
+        <v>36</v>
       </c>
       <c r="H14" s="7">
         <v>100</v>
@@ -1506,22 +1892,22 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="15" spans="2:12">
       <c r="B15" s="6"/>
       <c r="C15" s="7">
         <v>107</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>82</v>
+        <v>42</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>64</v>
+        <v>35</v>
       </c>
       <c r="F15" s="7">
         <v>1</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>68</v>
+        <v>36</v>
       </c>
       <c r="H15" s="7">
         <v>100</v>
@@ -1537,22 +1923,22 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="16" spans="2:12">
       <c r="B16" s="6"/>
       <c r="C16" s="7">
         <v>108</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>83</v>
+        <v>43</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>64</v>
+        <v>35</v>
       </c>
       <c r="F16" s="7">
         <v>1</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>68</v>
+        <v>36</v>
       </c>
       <c r="H16" s="7">
         <v>100</v>
@@ -1568,22 +1954,22 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:12">
       <c r="B17" s="6"/>
       <c r="C17" s="7">
         <v>109</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>84</v>
+        <v>44</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>64</v>
+        <v>35</v>
       </c>
       <c r="F17" s="7">
         <v>1</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>68</v>
+        <v>36</v>
       </c>
       <c r="H17" s="7">
         <v>100</v>
@@ -1599,22 +1985,22 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="18" spans="2:12">
       <c r="B18" s="6"/>
       <c r="C18" s="7">
         <v>110</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>76</v>
+        <v>45</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>64</v>
+        <v>35</v>
       </c>
       <c r="F18" s="7">
         <v>1</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>68</v>
+        <v>36</v>
       </c>
       <c r="H18" s="7">
         <v>100</v>
@@ -1630,22 +2016,22 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="19" spans="2:12">
       <c r="B19" s="6"/>
       <c r="C19" s="7">
         <v>201</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>86</v>
+        <v>46</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>64</v>
+        <v>35</v>
       </c>
       <c r="F19" s="7">
         <v>2</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>85</v>
+        <v>47</v>
       </c>
       <c r="H19" s="7">
         <v>100</v>
@@ -1661,22 +2047,22 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="20" spans="2:12">
       <c r="B20" s="6"/>
       <c r="C20" s="7">
         <v>202</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>87</v>
+        <v>48</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>64</v>
+        <v>35</v>
       </c>
       <c r="F20" s="7">
         <v>2</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>85</v>
+        <v>47</v>
       </c>
       <c r="H20" s="7">
         <v>100</v>
@@ -1692,22 +2078,22 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="21" spans="2:12">
       <c r="B21" s="6"/>
       <c r="C21" s="7">
         <v>203</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>88</v>
+        <v>49</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>64</v>
+        <v>35</v>
       </c>
       <c r="F21" s="7">
         <v>2</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>85</v>
+        <v>47</v>
       </c>
       <c r="H21" s="7">
         <v>100</v>
@@ -1723,22 +2109,22 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="22" spans="2:12">
       <c r="B22" s="6"/>
       <c r="C22" s="7">
         <v>204</v>
       </c>
       <c r="D22" s="7" t="s">
-        <v>89</v>
+        <v>50</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>61</v>
+        <v>35</v>
       </c>
       <c r="F22" s="7">
         <v>2</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>85</v>
+        <v>47</v>
       </c>
       <c r="H22" s="7">
         <v>100</v>
@@ -1754,22 +2140,22 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="23" spans="2:12">
       <c r="B23" s="6"/>
       <c r="C23" s="7">
         <v>205</v>
       </c>
       <c r="D23" s="7" t="s">
-        <v>90</v>
+        <v>51</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>61</v>
+        <v>35</v>
       </c>
       <c r="F23" s="7">
         <v>2</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>85</v>
+        <v>47</v>
       </c>
       <c r="H23" s="7">
         <v>100</v>
@@ -1785,22 +2171,22 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="24" spans="2:12">
       <c r="B24" s="6"/>
       <c r="C24" s="7">
         <v>206</v>
       </c>
       <c r="D24" s="7" t="s">
-        <v>91</v>
+        <v>52</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>61</v>
+        <v>35</v>
       </c>
       <c r="F24" s="7">
         <v>2</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>85</v>
+        <v>47</v>
       </c>
       <c r="H24" s="7">
         <v>100</v>
@@ -1816,22 +2202,22 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="25" spans="2:12">
       <c r="B25" s="6"/>
       <c r="C25" s="7">
         <v>207</v>
       </c>
       <c r="D25" s="7" t="s">
-        <v>92</v>
+        <v>53</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>61</v>
+        <v>35</v>
       </c>
       <c r="F25" s="7">
         <v>2</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>85</v>
+        <v>47</v>
       </c>
       <c r="H25" s="7">
         <v>100</v>
@@ -1847,22 +2233,22 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="26" spans="2:12">
       <c r="B26" s="6"/>
       <c r="C26" s="7">
         <v>208</v>
       </c>
       <c r="D26" s="7" t="s">
-        <v>93</v>
+        <v>54</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>61</v>
+        <v>35</v>
       </c>
       <c r="F26" s="7">
         <v>2</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>85</v>
+        <v>47</v>
       </c>
       <c r="H26" s="7">
         <v>100</v>
@@ -1878,22 +2264,22 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="27" spans="2:12">
       <c r="B27" s="6"/>
       <c r="C27" s="7">
         <v>209</v>
       </c>
       <c r="D27" s="7" t="s">
-        <v>94</v>
+        <v>55</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>61</v>
+        <v>35</v>
       </c>
       <c r="F27" s="7">
         <v>2</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>85</v>
+        <v>47</v>
       </c>
       <c r="H27" s="7">
         <v>100</v>
@@ -1909,22 +2295,22 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="28" spans="2:12">
       <c r="B28" s="6"/>
       <c r="C28" s="7">
         <v>210</v>
       </c>
       <c r="D28" s="7" t="s">
-        <v>95</v>
+        <v>56</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>61</v>
+        <v>35</v>
       </c>
       <c r="F28" s="7">
         <v>2</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>85</v>
+        <v>47</v>
       </c>
       <c r="H28" s="7">
         <v>100</v>
@@ -1940,22 +2326,22 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="29" spans="2:12">
       <c r="B29" s="6"/>
       <c r="C29" s="7">
         <v>3</v>
       </c>
       <c r="D29" s="7" t="s">
-        <v>96</v>
+        <v>57</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>61</v>
+        <v>35</v>
       </c>
       <c r="F29" s="7">
         <v>-1</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>85</v>
+        <v>47</v>
       </c>
       <c r="H29" s="7">
         <v>100</v>
@@ -1971,22 +2357,22 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="30" spans="2:12">
       <c r="B30" s="6"/>
       <c r="C30" s="7">
         <v>4</v>
       </c>
       <c r="D30" s="7" t="s">
-        <v>97</v>
+        <v>58</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>61</v>
+        <v>35</v>
       </c>
       <c r="F30" s="7">
         <v>-1</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>85</v>
+        <v>47</v>
       </c>
       <c r="H30" s="7">
         <v>100</v>
@@ -2002,28 +2388,28 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="31" spans="2:12">
       <c r="B31" s="6"/>
       <c r="C31" s="7">
         <v>5</v>
       </c>
       <c r="D31" s="7" t="s">
-        <v>98</v>
+        <v>59</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>102</v>
+        <v>60</v>
       </c>
       <c r="F31" s="7">
         <v>-1</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>103</v>
+        <v>61</v>
       </c>
       <c r="H31" s="7">
         <v>100</v>
       </c>
       <c r="I31" s="7" t="s">
-        <v>109</v>
+        <v>62</v>
       </c>
       <c r="J31" s="7">
         <v>10</v>
@@ -2035,22 +2421,22 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="32" spans="2:12">
       <c r="B32" s="6"/>
       <c r="C32" s="7">
         <v>6</v>
       </c>
       <c r="D32" s="7" t="s">
-        <v>99</v>
+        <v>63</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>61</v>
+        <v>35</v>
       </c>
       <c r="F32" s="7">
         <v>-1</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>103</v>
+        <v>61</v>
       </c>
       <c r="H32" s="7">
         <v>100</v>
@@ -2066,22 +2452,22 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="33" spans="2:12">
       <c r="B33" s="6"/>
       <c r="C33" s="7">
         <v>7</v>
       </c>
       <c r="D33" s="7" t="s">
-        <v>100</v>
+        <v>64</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>61</v>
+        <v>35</v>
       </c>
       <c r="F33" s="7">
         <v>-1</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>85</v>
+        <v>47</v>
       </c>
       <c r="H33" s="7">
         <v>100</v>
@@ -2097,470 +2483,492 @@
         <v>0</v>
       </c>
     </row>
+    <row r="34" s="8" customFormat="1" spans="2:12">
+      <c r="B34" s="6"/>
+      <c r="C34" s="7">
+        <v>8</v>
+      </c>
+      <c r="D34" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="E34" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="F34" s="7">
+        <v>-1</v>
+      </c>
+      <c r="G34" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="H34" s="7">
+        <v>100</v>
+      </c>
+      <c r="I34" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="J34" s="7">
+        <v>10</v>
+      </c>
+      <c r="K34" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="L34" s="7">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter alignWithMargins="0"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="B1:E42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
   <cols>
     <col min="2" max="2" width="17.375" customWidth="1"/>
     <col min="4" max="4" width="22.125" customWidth="1"/>
     <col min="5" max="5" width="13.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="1" spans="2:2">
       <c r="B1" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="2" spans="2:5" x14ac:dyDescent="0.15">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="2" spans="2:2">
       <c r="B2" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.15">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="3" spans="2:5">
       <c r="B3" s="3" t="s">
         <v>2</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>22</v>
+        <v>67</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>23</v>
+        <v>68</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.15">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5">
       <c r="B4" s="1"/>
       <c r="C4" s="1" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="E4" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5">
+      <c r="B5" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" s="3" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B5" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D5" s="3" t="s">
+      <c r="E5" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5">
+      <c r="B6" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C6" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="E5" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B6" s="5" t="s">
+      <c r="D6" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>8</v>
-      </c>
       <c r="E6" s="5"/>
     </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="7" spans="2:5">
       <c r="B7" s="6"/>
       <c r="C7" s="7">
         <v>1</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>26</v>
+        <v>70</v>
       </c>
       <c r="E7" s="7">
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="8" spans="2:5">
       <c r="B8" s="6"/>
       <c r="C8" s="7">
         <v>2</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>27</v>
+        <v>71</v>
       </c>
       <c r="E8" s="7"/>
     </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="9" spans="2:5">
       <c r="B9" s="6"/>
       <c r="C9" s="7">
         <v>3</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>28</v>
+        <v>72</v>
       </c>
       <c r="E9" s="7"/>
     </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="10" spans="2:5">
       <c r="B10" s="6"/>
       <c r="C10" s="7">
         <v>4</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>29</v>
+        <v>73</v>
       </c>
       <c r="E10" s="7"/>
     </row>
-    <row r="11" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="11" spans="2:5">
       <c r="B11" s="6"/>
       <c r="C11" s="7">
         <v>5</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>18</v>
+        <v>74</v>
       </c>
       <c r="E11" s="7"/>
     </row>
-    <row r="12" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="12" spans="2:5">
       <c r="B12" s="6"/>
       <c r="C12" s="7">
         <v>6</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>20</v>
+        <v>75</v>
       </c>
       <c r="E12" s="7"/>
     </row>
-    <row r="13" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="13" spans="2:5">
       <c r="B13" s="6"/>
       <c r="C13" s="7">
         <v>7</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>30</v>
+        <v>76</v>
       </c>
       <c r="E13" s="7"/>
     </row>
-    <row r="14" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="14" spans="2:5">
       <c r="B14" s="6"/>
       <c r="C14" s="7">
         <v>8</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>31</v>
+        <v>77</v>
       </c>
       <c r="E14" s="7"/>
     </row>
-    <row r="15" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="15" spans="2:5">
       <c r="B15" s="6"/>
       <c r="C15" s="7">
         <v>9</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>32</v>
+        <v>78</v>
       </c>
       <c r="E15" s="7"/>
     </row>
-    <row r="16" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="16" spans="2:5">
       <c r="B16" s="6"/>
       <c r="C16" s="7">
         <v>10</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>33</v>
+        <v>79</v>
       </c>
       <c r="E16" s="7"/>
     </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:5">
       <c r="B17" s="6"/>
       <c r="C17" s="7">
         <v>11</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>34</v>
+        <v>80</v>
       </c>
       <c r="E17" s="7"/>
     </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="18" spans="2:5">
       <c r="B18" s="6"/>
       <c r="C18" s="7">
         <v>12</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>35</v>
+        <v>81</v>
       </c>
       <c r="E18" s="7"/>
     </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="19" spans="2:5">
       <c r="B19" s="6"/>
       <c r="C19" s="7">
         <v>13</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>36</v>
+        <v>82</v>
       </c>
       <c r="E19" s="7"/>
     </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="20" spans="2:5">
       <c r="B20" s="6"/>
       <c r="C20" s="7">
         <v>14</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>37</v>
+        <v>83</v>
       </c>
       <c r="E20" s="7"/>
     </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="21" spans="2:5">
       <c r="B21" s="6"/>
       <c r="C21" s="7">
         <v>15</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>38</v>
+        <v>84</v>
       </c>
       <c r="E21" s="7"/>
     </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="22" spans="2:5">
       <c r="B22" s="6"/>
       <c r="C22" s="7">
         <v>16</v>
       </c>
       <c r="D22" s="7" t="s">
-        <v>39</v>
+        <v>85</v>
       </c>
       <c r="E22" s="7"/>
     </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="23" spans="2:5">
       <c r="B23" s="6"/>
       <c r="C23" s="7">
         <v>17</v>
       </c>
       <c r="D23" s="7" t="s">
-        <v>40</v>
+        <v>86</v>
       </c>
       <c r="E23" s="7"/>
     </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="24" spans="2:5">
       <c r="B24" s="6"/>
       <c r="C24" s="7">
         <v>18</v>
       </c>
       <c r="D24" s="7" t="s">
-        <v>41</v>
+        <v>87</v>
       </c>
       <c r="E24" s="7"/>
     </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="25" spans="2:5">
       <c r="B25" s="6"/>
       <c r="C25" s="7">
         <v>19</v>
       </c>
       <c r="D25" s="7" t="s">
-        <v>42</v>
+        <v>88</v>
       </c>
       <c r="E25" s="7"/>
     </row>
-    <row r="26" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="26" spans="2:5">
       <c r="B26" s="6"/>
       <c r="C26" s="7">
         <v>20</v>
       </c>
       <c r="D26" s="7" t="s">
-        <v>43</v>
+        <v>89</v>
       </c>
       <c r="E26" s="7"/>
     </row>
-    <row r="27" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="27" spans="2:5">
       <c r="B27" s="6"/>
       <c r="C27" s="7">
         <v>21</v>
       </c>
       <c r="D27" s="7" t="s">
-        <v>44</v>
+        <v>90</v>
       </c>
       <c r="E27" s="7"/>
     </row>
-    <row r="28" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="28" spans="2:5">
       <c r="B28" s="6"/>
       <c r="C28" s="7">
         <v>22</v>
       </c>
       <c r="D28" s="7" t="s">
-        <v>45</v>
+        <v>91</v>
       </c>
       <c r="E28" s="7"/>
     </row>
-    <row r="29" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="29" spans="2:5">
       <c r="B29" s="6"/>
       <c r="C29" s="7">
         <v>23</v>
       </c>
       <c r="D29" s="7" t="s">
-        <v>46</v>
+        <v>92</v>
       </c>
       <c r="E29" s="7"/>
     </row>
-    <row r="30" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="30" spans="2:5">
       <c r="B30" s="6"/>
       <c r="C30" s="7">
         <v>24</v>
       </c>
       <c r="D30" s="7" t="s">
-        <v>47</v>
+        <v>93</v>
       </c>
       <c r="E30" s="7"/>
     </row>
-    <row r="31" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="31" spans="2:5">
       <c r="B31" s="6"/>
       <c r="C31" s="7">
         <v>25</v>
       </c>
       <c r="D31" s="7" t="s">
-        <v>48</v>
+        <v>94</v>
       </c>
       <c r="E31" s="7"/>
     </row>
-    <row r="32" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="32" spans="2:5">
       <c r="B32" s="6"/>
       <c r="C32" s="7">
         <v>26</v>
       </c>
       <c r="D32" s="7" t="s">
-        <v>49</v>
+        <v>95</v>
       </c>
       <c r="E32" s="7"/>
     </row>
-    <row r="33" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="33" spans="2:5">
       <c r="B33" s="6"/>
       <c r="C33" s="7">
         <v>27</v>
       </c>
       <c r="D33" s="7" t="s">
-        <v>50</v>
+        <v>96</v>
       </c>
       <c r="E33" s="7"/>
     </row>
-    <row r="34" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="34" spans="2:5">
       <c r="B34" s="6"/>
       <c r="C34" s="7">
         <v>28</v>
       </c>
       <c r="D34" s="7" t="s">
-        <v>51</v>
+        <v>97</v>
       </c>
       <c r="E34" s="7"/>
     </row>
-    <row r="35" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="35" spans="2:5">
       <c r="B35" s="6"/>
       <c r="C35" s="7">
         <v>29</v>
       </c>
       <c r="D35" s="7" t="s">
-        <v>52</v>
+        <v>98</v>
       </c>
       <c r="E35" s="7"/>
     </row>
-    <row r="36" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="36" spans="2:5">
       <c r="B36" s="6"/>
       <c r="C36" s="7">
         <v>30</v>
       </c>
       <c r="D36" s="7" t="s">
-        <v>53</v>
+        <v>99</v>
       </c>
       <c r="E36" s="7"/>
     </row>
-    <row r="37" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="37" spans="2:5">
       <c r="B37" s="6"/>
       <c r="C37" s="7">
         <v>31</v>
       </c>
       <c r="D37" s="7" t="s">
-        <v>54</v>
+        <v>100</v>
       </c>
       <c r="E37" s="7"/>
     </row>
-    <row r="38" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="38" spans="2:5">
       <c r="B38" s="6"/>
       <c r="C38" s="7">
         <v>32</v>
       </c>
       <c r="D38" s="7" t="s">
-        <v>55</v>
+        <v>101</v>
       </c>
       <c r="E38" s="7"/>
     </row>
-    <row r="39" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="39" spans="2:5">
       <c r="B39" s="6"/>
       <c r="C39" s="7">
         <v>33</v>
       </c>
       <c r="D39" s="7" t="s">
-        <v>56</v>
+        <v>102</v>
       </c>
       <c r="E39" s="7"/>
     </row>
-    <row r="40" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="40" spans="2:5">
       <c r="B40" s="6"/>
       <c r="C40" s="7">
         <v>34</v>
       </c>
       <c r="D40" s="7" t="s">
-        <v>57</v>
+        <v>103</v>
       </c>
       <c r="E40" s="7"/>
     </row>
-    <row r="41" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="41" spans="2:5">
       <c r="B41" s="6"/>
       <c r="C41" s="7">
         <v>35</v>
       </c>
       <c r="D41" s="7" t="s">
-        <v>58</v>
+        <v>104</v>
       </c>
       <c r="E41" s="7"/>
     </row>
-    <row r="42" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="42" spans="2:5">
       <c r="B42" s="6" t="s">
-        <v>19</v>
+        <v>105</v>
       </c>
       <c r="C42" s="7">
         <v>36</v>
       </c>
       <c r="D42" s="7" t="s">
-        <v>59</v>
+        <v>106</v>
       </c>
       <c r="E42" s="7"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter alignWithMargins="0"/>
-  <legacyDrawing r:id="rId1"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/配置表/F副本配置表.xlsx
+++ b/配置表/F副本配置表.xlsx
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109">
   <si>
     <t>DungeonConfig</t>
   </si>
@@ -290,6 +290,12 @@
     <t>moba</t>
   </si>
   <si>
+    <t>选择英雄</t>
+  </si>
+  <si>
+    <t>SelectHero</t>
+  </si>
+  <si>
     <t>ChapterConfig</t>
   </si>
   <si>
@@ -423,7 +429,7 @@
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -437,14 +443,17 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color indexed="9"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -457,16 +466,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -480,10 +496,33 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -495,7 +534,23 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -509,25 +564,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -535,7 +573,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -550,28 +588,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -611,19 +627,109 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -635,25 +741,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -665,133 +783,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -837,7 +853,22 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -853,6 +884,39 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -874,54 +938,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -931,17 +947,17 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="47">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -950,131 +966,137 @@
     <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1100,14 +1122,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="47">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
     <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
@@ -1118,43 +1134,45 @@
     <cellStyle name="差" xfId="7" builtinId="27"/>
     <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
     <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="百分比" xfId="10" builtinId="5"/>
-    <cellStyle name="注释" xfId="11" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="12" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="13" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="14" builtinId="11"/>
-    <cellStyle name="标题" xfId="15" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="16" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="17" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="18" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="19" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="20" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="21" builtinId="44"/>
-    <cellStyle name="输出" xfId="22" builtinId="21"/>
-    <cellStyle name="计算" xfId="23" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="24" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="25" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="26" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="27" builtinId="24"/>
-    <cellStyle name="汇总" xfId="28" builtinId="25"/>
-    <cellStyle name="好" xfId="29" builtinId="26"/>
-    <cellStyle name="适中" xfId="30" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="31" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="32" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="33" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="34" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="35" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="36" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="37" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="38" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="39" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="40" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="42" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="43" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="44" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="45" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="46" builtinId="52"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
@@ -1168,7 +1186,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr val="window" lastClr="CCE8CF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -1490,10 +1508,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="B1:L34"/>
+  <dimension ref="B1:L35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E34" sqref="E34"/>
+      <selection activeCell="E36" sqref="E36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1544,10 +1562,10 @@
       <c r="H3" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I3" s="10" t="s">
+      <c r="I3" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="J3" s="10" t="s">
+      <c r="J3" s="3" t="s">
         <v>10</v>
       </c>
       <c r="K3" s="3" t="s">
@@ -1574,13 +1592,13 @@
       <c r="G4" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="H4" s="9" t="s">
+      <c r="H4" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="I4" s="9" t="s">
+      <c r="I4" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="J4" s="9" t="s">
+      <c r="J4" s="4" t="s">
         <v>20</v>
       </c>
       <c r="K4" s="4" t="s">
@@ -1612,7 +1630,7 @@
       <c r="H5" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="I5" s="10" t="s">
+      <c r="I5" s="3" t="s">
         <v>26</v>
       </c>
       <c r="J5" s="3" t="s">
@@ -2513,6 +2531,39 @@
         <v>0</v>
       </c>
       <c r="L34" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" s="8" customFormat="1" spans="2:12">
+      <c r="B35" s="6"/>
+      <c r="C35" s="7">
+        <v>9</v>
+      </c>
+      <c r="D35" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="E35" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="F35" s="7">
+        <v>-1</v>
+      </c>
+      <c r="G35" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="H35" s="7">
+        <v>100</v>
+      </c>
+      <c r="I35" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="J35" s="7">
+        <v>10</v>
+      </c>
+      <c r="K35" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="L35" s="7">
         <v>0</v>
       </c>
     </row>
@@ -2541,12 +2592,12 @@
   <sheetData>
     <row r="1" spans="2:2">
       <c r="B1" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="2" spans="2:2">
       <c r="B2" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="3" spans="2:5">
@@ -2554,13 +2605,13 @@
         <v>2</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row r="4" spans="2:5">
@@ -2607,7 +2658,7 @@
         <v>1</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E7" s="7">
         <v>2</v>
@@ -2619,7 +2670,7 @@
         <v>2</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="E8" s="7"/>
     </row>
@@ -2629,7 +2680,7 @@
         <v>3</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="E9" s="7"/>
     </row>
@@ -2639,7 +2690,7 @@
         <v>4</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="E10" s="7"/>
     </row>
@@ -2649,7 +2700,7 @@
         <v>5</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E11" s="7"/>
     </row>
@@ -2659,7 +2710,7 @@
         <v>6</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="E12" s="7"/>
     </row>
@@ -2669,7 +2720,7 @@
         <v>7</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="E13" s="7"/>
     </row>
@@ -2679,7 +2730,7 @@
         <v>8</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="E14" s="7"/>
     </row>
@@ -2689,7 +2740,7 @@
         <v>9</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E15" s="7"/>
     </row>
@@ -2699,7 +2750,7 @@
         <v>10</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E16" s="7"/>
     </row>
@@ -2709,7 +2760,7 @@
         <v>11</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E17" s="7"/>
     </row>
@@ -2719,7 +2770,7 @@
         <v>12</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E18" s="7"/>
     </row>
@@ -2729,7 +2780,7 @@
         <v>13</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E19" s="7"/>
     </row>
@@ -2739,7 +2790,7 @@
         <v>14</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="E20" s="7"/>
     </row>
@@ -2749,7 +2800,7 @@
         <v>15</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="E21" s="7"/>
     </row>
@@ -2759,7 +2810,7 @@
         <v>16</v>
       </c>
       <c r="D22" s="7" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="E22" s="7"/>
     </row>
@@ -2769,7 +2820,7 @@
         <v>17</v>
       </c>
       <c r="D23" s="7" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E23" s="7"/>
     </row>
@@ -2779,7 +2830,7 @@
         <v>18</v>
       </c>
       <c r="D24" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E24" s="7"/>
     </row>
@@ -2789,7 +2840,7 @@
         <v>19</v>
       </c>
       <c r="D25" s="7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E25" s="7"/>
     </row>
@@ -2799,7 +2850,7 @@
         <v>20</v>
       </c>
       <c r="D26" s="7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E26" s="7"/>
     </row>
@@ -2809,7 +2860,7 @@
         <v>21</v>
       </c>
       <c r="D27" s="7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E27" s="7"/>
     </row>
@@ -2819,7 +2870,7 @@
         <v>22</v>
       </c>
       <c r="D28" s="7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E28" s="7"/>
     </row>
@@ -2829,7 +2880,7 @@
         <v>23</v>
       </c>
       <c r="D29" s="7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E29" s="7"/>
     </row>
@@ -2839,7 +2890,7 @@
         <v>24</v>
       </c>
       <c r="D30" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E30" s="7"/>
     </row>
@@ -2849,7 +2900,7 @@
         <v>25</v>
       </c>
       <c r="D31" s="7" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E31" s="7"/>
     </row>
@@ -2859,7 +2910,7 @@
         <v>26</v>
       </c>
       <c r="D32" s="7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E32" s="7"/>
     </row>
@@ -2869,7 +2920,7 @@
         <v>27</v>
       </c>
       <c r="D33" s="7" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E33" s="7"/>
     </row>
@@ -2879,7 +2930,7 @@
         <v>28</v>
       </c>
       <c r="D34" s="7" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E34" s="7"/>
     </row>
@@ -2889,7 +2940,7 @@
         <v>29</v>
       </c>
       <c r="D35" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E35" s="7"/>
     </row>
@@ -2899,7 +2950,7 @@
         <v>30</v>
       </c>
       <c r="D36" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E36" s="7"/>
     </row>
@@ -2909,7 +2960,7 @@
         <v>31</v>
       </c>
       <c r="D37" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E37" s="7"/>
     </row>
@@ -2919,7 +2970,7 @@
         <v>32</v>
       </c>
       <c r="D38" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E38" s="7"/>
     </row>
@@ -2929,7 +2980,7 @@
         <v>33</v>
       </c>
       <c r="D39" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E39" s="7"/>
     </row>
@@ -2939,7 +2990,7 @@
         <v>34</v>
       </c>
       <c r="D40" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E40" s="7"/>
     </row>
@@ -2949,19 +3000,19 @@
         <v>35</v>
       </c>
       <c r="D41" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E41" s="7"/>
     </row>
     <row r="42" spans="2:5">
       <c r="B42" s="6" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="C42" s="7">
         <v>36</v>
       </c>
       <c r="D42" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E42" s="7"/>
     </row>
